--- a/data/anexo_b2_politicas.xlsx
+++ b/data/anexo_b2_politicas.xlsx
@@ -12057,6 +12057,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12347,7 +12351,7 @@
   <dimension ref="A1:K1892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/anexo_b2_politicas.xlsx
+++ b/data/anexo_b2_politicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f73cd49b1817ad/Documentos/GitHub/PEI_GL_generador/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67039AC1-5805-409B-BD39-E65FC6250B36}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F1F4BC-3A9A-48C2-B39E-73E2AEE6AD8D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12350,14 +12350,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1892"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="4" max="11" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="5" max="11" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
